--- a/reports/_OCEAN NETWORK EXPRESS_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_17_.xlsx
+++ b/reports/_OCEAN NETWORK EXPRESS_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_17_.xlsx
@@ -2177,11 +2177,11 @@
         <v>53</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S9" s="0"/>
@@ -2409,11 +2409,11 @@
         <v>50</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S11" s="0"/>
@@ -4787,11 +4787,11 @@
         <v>43</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S36" s="0"/>
@@ -6097,11 +6097,11 @@
         <v>36</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S50" s="0"/>
@@ -6387,11 +6387,11 @@
         <v>35</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S53" s="0"/>
@@ -11259,11 +11259,11 @@
         <v>28</v>
       </c>
       <c r="Q103" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S103" s="0"/>
@@ -13415,11 +13415,11 @@
         <v>25</v>
       </c>
       <c r="Q125" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S125" s="0"/>
